--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khan\Desktop\CureMD\Flow charts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4073\Desktop\assignments\sq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4476108-BDB3-43B1-A3E1-AD6B259B69AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1" xr2:uid="{B7511C62-2C9F-4861-90C9-95A05E55B087}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
   <si>
     <t>Test Groups</t>
   </si>
@@ -82,13 +81,133 @@
   </si>
   <si>
     <t>Job offered</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Sr. No.</t>
+  </si>
+  <si>
+    <t>Equivalent Classess</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>Login/signup name field(Maximum 5 alphanumeric characters allowed)</t>
+  </si>
+  <si>
+    <t>89ab</t>
+  </si>
+  <si>
+    <t>893ar</t>
+  </si>
+  <si>
+    <t>890abc</t>
+  </si>
+  <si>
+    <t>idrs</t>
+  </si>
+  <si>
+    <t>idres</t>
+  </si>
+  <si>
+    <t>idrees</t>
+  </si>
+  <si>
+    <t>Password field(Maximum 5 alphanumeric characters allowed)</t>
+  </si>
+  <si>
+    <t>893a</t>
+  </si>
+  <si>
+    <t>893bc</t>
+  </si>
+  <si>
+    <t>789abc</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>abcde</t>
+  </si>
+  <si>
+    <t>abcdef</t>
+  </si>
+  <si>
+    <t>CNIC field in SignUp(Only 13  alphanumeric characters allowed)</t>
+  </si>
+  <si>
+    <t>12345-6789123-</t>
+  </si>
+  <si>
+    <t>12345-6789123-4</t>
+  </si>
+  <si>
+    <t>12345-6789123-45</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>CNIC</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Valid/Invalid</t>
+  </si>
+  <si>
+    <t>Boundary Values</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>INN</t>
+  </si>
+  <si>
+    <t>Boundary Values for name field(only five alphanumeric)</t>
+  </si>
+  <si>
+    <t>Boundary Values for password field(only five alphanumeric)</t>
+  </si>
+  <si>
+    <t>idrs1</t>
+  </si>
+  <si>
+    <t>idrees123</t>
+  </si>
+  <si>
+    <t>abc1</t>
+  </si>
+  <si>
+    <t>Boundary values for CNIC field(only 13 numbers allowed)</t>
+  </si>
+  <si>
+    <t>12345-6789101-1</t>
+  </si>
+  <si>
+    <t>12345-6789101-112</t>
+  </si>
+  <si>
+    <t>12345-6789101-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +225,30 @@
     </font>
     <font>
       <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -132,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -141,6 +284,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,6 +557,68 @@
             <a:srgbClr val="C0C0C0"/>
           </a:contourClr>
         </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11068050" y="276225"/>
+          <a:ext cx="5819775" cy="8867775"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 8594"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:reflection blurRad="12700" stA="38000" endPos="28000" dist="5000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+        </a:effectLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -696,10 +922,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0700194B-07DB-4F11-BCA9-18DBDA3047DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="I10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AP26" sqref="AP26"/>
     </sheetView>
   </sheetViews>
@@ -711,26 +937,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040D24FA-BC2C-4F4F-9157-EC7980C509A6}">
-  <dimension ref="A1:D20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" customWidth="1"/>
-    <col min="3" max="3" width="45.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="53" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -740,9 +969,17 @@
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -752,8 +989,17 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -763,8 +1009,17 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -774,8 +1029,17 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -785,8 +1049,11 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -796,8 +1063,11 @@
       <c r="C7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -807,35 +1077,295 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D8" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1">
+        <v>8932</v>
+      </c>
+      <c r="C15" s="1">
+        <v>47396</v>
+      </c>
+      <c r="D15" s="1">
+        <v>473968</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1234</v>
+      </c>
+      <c r="D21" s="1">
+        <v>12345</v>
+      </c>
+      <c r="E21" s="1">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B36" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B40" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="B31:E31"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,39 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4073\Desktop\assignments\sq\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CCC674-7426-4FE3-AFB9-5BF7EE1D6F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="90">
   <si>
     <t>Test Groups</t>
   </si>
@@ -173,9 +167,6 @@
     <t>OFF</t>
   </si>
   <si>
-    <t>INN</t>
-  </si>
-  <si>
     <t>Boundary Values for name field(only five alphanumeric)</t>
   </si>
   <si>
@@ -201,13 +192,118 @@
   </si>
   <si>
     <t>12345-6789101-</t>
+  </si>
+  <si>
+    <t>Admission Process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Groups </t>
+  </si>
+  <si>
+    <t>1, 2</t>
+  </si>
+  <si>
+    <t>Sign up is required</t>
+  </si>
+  <si>
+    <t>1, 3, 4, 5</t>
+  </si>
+  <si>
+    <t>Do not meet the shortlisting criteria</t>
+  </si>
+  <si>
+    <t>1, 3, 4, 6, 7,  8</t>
+  </si>
+  <si>
+    <t>Failed in Entry test</t>
+  </si>
+  <si>
+    <t>1, 3, 4, 6, 7, 9, 10, 11</t>
+  </si>
+  <si>
+    <t>Rejected in interview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, 3, 4, 6, 7, 9, 10, 12 </t>
+  </si>
+  <si>
+    <t>Admission Offered</t>
+  </si>
+  <si>
+    <t>Idres</t>
+  </si>
+  <si>
+    <t>Idrees</t>
+  </si>
+  <si>
+    <t>M Idrees</t>
+  </si>
+  <si>
+    <t>Login/SignUp Name field(Only 6 alphanumeric characters allowed )</t>
+  </si>
+  <si>
+    <t>idrees1</t>
+  </si>
+  <si>
+    <t>Idres1</t>
+  </si>
+  <si>
+    <t>Idrees1</t>
+  </si>
+  <si>
+    <t>idrs32</t>
+  </si>
+  <si>
+    <t>Idrs34</t>
+  </si>
+  <si>
+    <t>Idres11</t>
+  </si>
+  <si>
+    <t>Login/Sign Up Password Field (only 5 numerics allowed)</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>CNIC field in Sign Up (only 13 numbers allowed)</t>
+  </si>
+  <si>
+    <t>12345-1234567-8</t>
+  </si>
+  <si>
+    <t>12345-1234789-3</t>
+  </si>
+  <si>
+    <t>36102-1234567-78</t>
+  </si>
+  <si>
+    <t>idrees12</t>
+  </si>
+  <si>
+    <t>idr</t>
+  </si>
+  <si>
+    <t>Idreess34</t>
+  </si>
+  <si>
+    <t>idr12</t>
+  </si>
+  <si>
+    <t>idres32</t>
+  </si>
+  <si>
+    <t>12345-1234789-32</t>
+  </si>
+  <si>
+    <t>36102-1234567-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +350,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -275,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -290,21 +422,52 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,7 +744,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -619,6 +788,91 @@
         <a:effectLst>
           <a:reflection blurRad="12700" stA="38000" endPos="28000" dist="5000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
         </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>486230</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>121832</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>454932</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>41045</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25F6280B-5594-2B43-5566-6F79571D5B39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8316666" y="121832"/>
+          <a:ext cx="6669429" cy="8624620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -922,10 +1176,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="I10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="46" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AP26" sqref="AP26"/>
     </sheetView>
   </sheetViews>
@@ -937,11 +1191,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,8 +1208,8 @@
     <col min="6" max="6" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -989,7 +1243,7 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="1">
@@ -1009,7 +1263,7 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="1">
@@ -1029,7 +1283,7 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="1">
@@ -1049,7 +1303,7 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1063,7 +1317,7 @@
       <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1077,7 +1331,7 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1088,11 +1342,11 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
@@ -1152,11 +1406,11 @@
     </row>
     <row r="18" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
@@ -1214,11 +1468,11 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
@@ -1258,50 +1512,50 @@
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
+      <c r="B32" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="8" t="s">
         <v>45</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" t="s">
         <v>49</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>50</v>
       </c>
-      <c r="D34" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="36" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B36" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
+      <c r="B36" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
@@ -1311,48 +1565,48 @@
         <v>45</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" t="s">
         <v>49</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>50</v>
       </c>
-      <c r="D38" t="s">
+    </row>
+    <row r="40" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B40" s="22" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B40" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D41" s="12" t="s">
-        <v>46</v>
+      <c r="D41" s="9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" t="s">
         <v>53</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>54</v>
-      </c>
-      <c r="D42" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1368,4 +1622,511 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF12267-0B6F-46CE-9089-33DC4066BC3C}">
+  <dimension ref="A1:K43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="79" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="0.28515625" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="21"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="24"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="24"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="F6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="24"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="F7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="24"/>
+    </row>
+    <row r="10" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="13">
+        <v>1</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="24"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="13">
+        <v>2</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="24"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="13">
+        <v>3</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>1234</v>
+      </c>
+      <c r="C20">
+        <v>12345</v>
+      </c>
+      <c r="D20">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="17"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="26"/>
+      <c r="D24" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" s="24"/>
+    </row>
+    <row r="27" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B27" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+    </row>
+    <row r="28" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
+      <c r="B36" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>12345</v>
+      </c>
+      <c r="C38">
+        <v>123456</v>
+      </c>
+      <c r="D38">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+    </row>
+    <row r="40" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B40" s="17"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="26"/>
+      <c r="D42" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="24"/>
+      <c r="D43" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" s="15"/>
+      <c r="F43" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="G43" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="F25:G25"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>